--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.032878</v>
+        <v>3.167224666666667</v>
       </c>
       <c r="H2">
-        <v>39.098634</v>
+        <v>9.501674000000001</v>
       </c>
       <c r="I2">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134895</v>
       </c>
       <c r="J2">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N2">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q2">
-        <v>107.7710663940893</v>
+        <v>11.48478421666334</v>
       </c>
       <c r="R2">
-        <v>969.9395975468038</v>
+        <v>103.36305794997</v>
       </c>
       <c r="S2">
-        <v>0.01980908722458093</v>
+        <v>0.003466570679043504</v>
       </c>
       <c r="T2">
-        <v>0.01980908722458094</v>
+        <v>0.003466570679043504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.032878</v>
+        <v>3.167224666666667</v>
       </c>
       <c r="H3">
-        <v>39.098634</v>
+        <v>9.501674000000001</v>
       </c>
       <c r="I3">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134895</v>
       </c>
       <c r="J3">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134894</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q3">
-        <v>1.580809904132</v>
+        <v>0.3841653487186668</v>
       </c>
       <c r="R3">
-        <v>14.227289137188</v>
+        <v>3.457488138468</v>
       </c>
       <c r="S3">
-        <v>0.0002905640848159005</v>
+        <v>0.0001159565829578608</v>
       </c>
       <c r="T3">
-        <v>0.0002905640848159006</v>
+        <v>0.0001159565829578608</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.032878</v>
+        <v>3.167224666666667</v>
       </c>
       <c r="H4">
-        <v>39.098634</v>
+        <v>9.501674000000001</v>
       </c>
       <c r="I4">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134895</v>
       </c>
       <c r="J4">
-        <v>0.02949184097968156</v>
+        <v>0.007330706330134894</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q4">
-        <v>51.09807862757533</v>
+        <v>12.41775569820645</v>
       </c>
       <c r="R4">
-        <v>459.882707648178</v>
+        <v>111.759801283858</v>
       </c>
       <c r="S4">
-        <v>0.009392189670284721</v>
+        <v>0.00374817906813353</v>
       </c>
       <c r="T4">
-        <v>0.009392189670284722</v>
+        <v>0.00374817906813353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1187.759399</v>
       </c>
       <c r="I5">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903682</v>
       </c>
       <c r="J5">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N5">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q5">
-        <v>3273.927601916544</v>
+        <v>1435.658642764289</v>
       </c>
       <c r="R5">
-        <v>29465.34841724889</v>
+        <v>12920.9277848786</v>
       </c>
       <c r="S5">
-        <v>0.6017711395392185</v>
+        <v>0.4333396311357065</v>
       </c>
       <c r="T5">
-        <v>0.6017711395392185</v>
+        <v>0.4333396311357065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1187.759399</v>
       </c>
       <c r="I6">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903682</v>
       </c>
       <c r="J6">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903681</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q6">
         <v>48.02269618076867</v>
@@ -818,10 +818,10 @@
         <v>432.204265626918</v>
       </c>
       <c r="S6">
-        <v>0.008826912540011476</v>
+        <v>0.01449518487838274</v>
       </c>
       <c r="T6">
-        <v>0.008826912540011476</v>
+        <v>0.01449518487838273</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1187.759399</v>
       </c>
       <c r="I7">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903682</v>
       </c>
       <c r="J7">
-        <v>0.8959190573622122</v>
+        <v>0.9163769820903681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q7">
         <v>1552.285002098631</v>
@@ -880,10 +880,10 @@
         <v>13970.56501888768</v>
       </c>
       <c r="S7">
-        <v>0.2853210052829823</v>
+        <v>0.4685421660762789</v>
       </c>
       <c r="T7">
-        <v>0.2853210052829823</v>
+        <v>0.4685421660762789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>98.886061</v>
       </c>
       <c r="I8">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949697</v>
       </c>
       <c r="J8">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N8">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q8">
-        <v>272.5685057304295</v>
+        <v>119.5247356014117</v>
       </c>
       <c r="R8">
-        <v>2453.116551573866</v>
+        <v>1075.722620412705</v>
       </c>
       <c r="S8">
-        <v>0.05010002670794666</v>
+        <v>0.0360773816938686</v>
       </c>
       <c r="T8">
-        <v>0.05010002670794666</v>
+        <v>0.0360773816938686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>98.886061</v>
       </c>
       <c r="I9">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949697</v>
       </c>
       <c r="J9">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949695</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.363882</v>
       </c>
       <c r="O9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q9">
         <v>3.998095294311334</v>
@@ -1004,10 +1004,10 @@
         <v>35.982857648802</v>
       </c>
       <c r="S9">
-        <v>0.0007348783033063077</v>
+        <v>0.001206786271105764</v>
       </c>
       <c r="T9">
-        <v>0.0007348783033063077</v>
+        <v>0.001206786271105763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>98.886061</v>
       </c>
       <c r="I10">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949697</v>
       </c>
       <c r="J10">
-        <v>0.07458910165810628</v>
+        <v>0.07629231157949695</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.762117</v>
       </c>
       <c r="O10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q10">
         <v>129.2343799056819</v>
@@ -1066,10 +1066,10 @@
         <v>1163.109419151137</v>
       </c>
       <c r="S10">
-        <v>0.02375419664685332</v>
+        <v>0.03900814361452259</v>
       </c>
       <c r="T10">
-        <v>0.02375419664685332</v>
+        <v>0.03900814361452259</v>
       </c>
     </row>
   </sheetData>
